--- a/Excel/DSA_CTCI_Tracker.xlsx
+++ b/Excel/DSA_CTCI_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ghanu Study\Varnagi Learning\Languages\DSA\DSA_LB-Own\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2B27BA-1093-4560-B979-2D41EDA62613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CEC5FD-2B52-47F5-B108-B7B3A46C8AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,14 +399,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,7 +714,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -733,7 +732,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -759,410 +758,565 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G3" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G4" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G5" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G6" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G7" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G8" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G9" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G10" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G11" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G12" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G13" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G14" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G15" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G16" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G17" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G18" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G19" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G20" t="s">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G21" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G22" t="s">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G23" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G24" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D25" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G25" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G26" t="s">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D27" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G27" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G28" t="s">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D29" t="s">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G29" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D30" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G30" t="s">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/DSA_CTCI_Tracker.xlsx
+++ b/Excel/DSA_CTCI_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ghanu Study\Varnagi Learning\Languages\DSA\DSA_LB-Own\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CEC5FD-2B52-47F5-B108-B7B3A46C8AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F7C962-F5D8-45C3-9142-D3E0C25B1E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -341,6 +341,12 @@
   </si>
   <si>
     <t>LC Topic Done</t>
+  </si>
+  <si>
+    <t>Topic Practice</t>
+  </si>
+  <si>
+    <t>Array Rotation</t>
   </si>
 </sst>
 </file>
@@ -711,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,10 +731,11 @@
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,8 +763,11 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -783,8 +793,11 @@
         <v>1</v>
       </c>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -792,39 +805,57 @@
         <v>78</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
       <c r="G3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
       <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -837,13 +868,14 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -856,13 +888,14 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -875,13 +908,14 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -894,13 +928,14 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -913,13 +948,14 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -932,13 +968,14 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -951,13 +988,14 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -970,13 +1008,14 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -989,13 +1028,14 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1008,13 +1048,14 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -1027,13 +1068,14 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -1046,13 +1088,14 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -1065,13 +1108,14 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1084,13 +1128,14 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -1103,13 +1148,14 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1122,13 +1168,14 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -1141,13 +1188,14 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1160,13 +1208,14 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1179,13 +1228,14 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -1198,13 +1248,14 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -1217,13 +1268,14 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -1236,13 +1288,14 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -1255,13 +1308,14 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -1274,13 +1328,14 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
@@ -1293,13 +1348,14 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
@@ -1312,11 +1368,12 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
+      <c r="J30" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/DSA_CTCI_Tracker.xlsx
+++ b/Excel/DSA_CTCI_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ghanu Study\Varnagi Learning\Languages\DSA\DSA_LB-Own\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F7C962-F5D8-45C3-9142-D3E0C25B1E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C995567D-87D8-4EBA-90B5-D3B4AD1A1311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="110">
   <si>
     <t>Date</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>Array Rotation</t>
+  </si>
+  <si>
+    <t>sort colour</t>
   </si>
 </sst>
 </file>
@@ -837,20 +840,26 @@
         <v>79</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
       <c r="F4" s="2">
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="2">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="J4" s="2" t="s">
         <v>67</v>
       </c>

--- a/Excel/DSA_CTCI_Tracker.xlsx
+++ b/Excel/DSA_CTCI_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ghanu Study\Varnagi Learning\Languages\DSA\DSA_LB-Own\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C995567D-87D8-4EBA-90B5-D3B4AD1A1311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AF4457-F2F3-46F0-9E79-A8A03202BE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="112">
   <si>
     <t>Date</t>
   </si>
@@ -350,6 +350,12 @@
   </si>
   <si>
     <t>sort colour</t>
+  </si>
+  <si>
+    <t>Binary Search, pivot (3)</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
   </si>
 </sst>
 </file>
@@ -723,7 +729,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -733,7 +739,7 @@
     <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
@@ -871,15 +877,27 @@
       <c r="B5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="J5" s="2" t="s">
         <v>68</v>
       </c>

--- a/Excel/DSA_CTCI_Tracker.xlsx
+++ b/Excel/DSA_CTCI_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ghanu Study\Varnagi Learning\Languages\DSA\DSA_LB-Own\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AF4457-F2F3-46F0-9E79-A8A03202BE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C141ECE8-0C07-4140-9BFC-93E1654ED345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,12 +379,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -414,12 +420,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -729,7 +738,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,7 +789,7 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C2" s="2">
@@ -810,7 +819,7 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C3" s="2">
@@ -842,7 +851,7 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C4" s="2">
@@ -874,7 +883,7 @@
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C5" s="2">
@@ -906,7 +915,7 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C6" s="2"/>
@@ -926,7 +935,7 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C7" s="2"/>
@@ -946,7 +955,7 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C8" s="2"/>
@@ -966,7 +975,7 @@
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C9" s="2"/>
@@ -986,7 +995,7 @@
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C10" s="2"/>
@@ -1006,7 +1015,7 @@
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C11" s="2"/>
@@ -1026,7 +1035,7 @@
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C12" s="2"/>
@@ -1046,7 +1055,7 @@
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C13" s="2"/>
@@ -1066,7 +1075,7 @@
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C14" s="2"/>

--- a/Excel/DSA_CTCI_Tracker.xlsx
+++ b/Excel/DSA_CTCI_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ghanu Study\Varnagi Learning\Languages\DSA\DSA_LB-Own\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C141ECE8-0C07-4140-9BFC-93E1654ED345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A7749D-17BE-4C0D-ADEA-5142BD733933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -738,7 +738,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -918,14 +918,20 @@
       <c r="B6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
         <v>69</v>

--- a/Excel/DSA_CTCI_Tracker.xlsx
+++ b/Excel/DSA_CTCI_Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ghanu Study\Varnagi Learning\Languages\DSA\DSA_LB-Own\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A7749D-17BE-4C0D-ADEA-5142BD733933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3295AE7F-9578-43BC-B49C-22DED5042D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4596" yWindow="3432" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -738,7 +738,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -924,7 +924,9 @@
       <c r="D6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
       <c r="F6" s="2">
         <v>0</v>
       </c>
@@ -944,15 +946,27 @@
       <c r="B7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
       <c r="J7" s="2" t="s">
         <v>70</v>
       </c>
@@ -968,7 +982,9 @@
       <c r="D8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>

--- a/Excel/DSA_CTCI_Tracker.xlsx
+++ b/Excel/DSA_CTCI_Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ghanu Study\Varnagi Learning\Languages\DSA\DSA_LB-Own\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3295AE7F-9578-43BC-B49C-22DED5042D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E84FB7-0665-4FE9-B470-7F0CFF7A70A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4596" yWindow="3432" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="112">
   <si>
     <t>Date</t>
   </si>
@@ -738,7 +738,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -978,16 +978,22 @@
       <c r="B8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
         <v>71</v>

--- a/Excel/DSA_CTCI_Tracker.xlsx
+++ b/Excel/DSA_CTCI_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ghanu Study\Varnagi Learning\Languages\DSA\DSA_LB-Own\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E84FB7-0665-4FE9-B470-7F0CFF7A70A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECA2CCA-BFFF-4DD6-B6B3-4457CF8FEB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="112">
   <si>
     <t>Date</t>
   </si>
@@ -738,7 +738,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1026,14 +1026,20 @@
       <c r="B10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
         <v>73</v>
